--- a/Vinge_maalinger.xlsx
+++ b/Vinge_maalinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\OneDrive\Dokumenter\6_semester\Bachelor\github\frederikt0ft-ROTV-modeling-and-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D33DC2E-2680-4B11-A4FB-063FF260E886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776BA05F-A315-4B8D-A70F-9BD4FB89CCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{243AACA6-6F6E-4C95-91FB-00F380E06ED8}"/>
   </bookViews>
@@ -1127,10 +1127,10 @@
                   <c:v>11.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.14</c:v>
+                  <c:v>4.1399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.19</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,16 +3073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3410,7 +3410,7 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,7 +4025,7 @@
         <v>5.1375838926174495</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>255/255*100</f>
         <v>100</v>
@@ -4034,25 +4034,39 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>105/255*100</f>
         <v>41.17647058823529</v>
       </c>
       <c r="B50">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>45/255*100</f>
         <v>17.647058823529413</v>
       </c>
       <c r="B51">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G51">
+        <f>45/255*100</f>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="K51">
+        <f>0.1229*17-0.241</f>
+        <v>1.8482999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f>0.1181*40+0.1767</f>
+        <v>4.9007000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
